--- a/Documents/API 명세.xlsx
+++ b/Documents/API 명세.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moonki\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mashiro\Documents\vscode_workspace\SEproject\Mr.Great-SE-Project\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4228A374-3C0F-4693-8BB8-9F8DC201138F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9015" yWindow="1440" windowWidth="28800" windowHeight="15435" xr2:uid="{1DC3B2B3-8A89-4B2B-A952-1936D3D823A1}"/>
+    <workbookView xWindow="9015" yWindow="1440" windowWidth="28800" windowHeight="15435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -92,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주문하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>menu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,82 +167,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>주문 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderList 요청(GET /orderList)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderList 객체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waiting_order_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooking_order_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivering_order_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_id, Order 객체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order 이동 (POST /changeOrder)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이후 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 내역 조회 (GET /order_history_list)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 내역 객체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>장바구니에서 주문 제외(POST /basketRefresh)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주문 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제하기 (POST /basket)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderList 요청(GET /orderList)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderList 객체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>waiting_order_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cooking_order_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delivering_order_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_id, Order 객체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order 이동 (POST /changeOrder)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>from</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이전 상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이후 상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 내역 조회 (GET /order_history_list)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 내역 객체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_history</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Order list</t>
+    <t>주문하기(GET /menu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제하기 (POST /payment)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -566,88 +565,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -966,11 +965,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F89E624-C774-4460-A4DD-DFAF62540586}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -986,423 +985,423 @@
   <sheetData>
     <row r="5" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23" t="s">
+      <c r="B6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>19</v>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="14"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="15" t="s">
+      <c r="E8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="14"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="22"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="22"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="14"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="14"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="30" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="14"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="8"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="30"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="14"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="14"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="22"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="14"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="16" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="16"/>
-      <c r="C16" s="17" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="F16" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="28"/>
+      <c r="C18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="20"/>
+      <c r="C20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="21" t="b">
+      <c r="E20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="25" t="s">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="23"/>
+      <c r="C22" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="20"/>
+      <c r="C27" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="20"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="20"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="26" t="s">
+      <c r="E30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="22"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="19"/>
-      <c r="C18" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="21"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="25"/>
-      <c r="C20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="16"/>
-      <c r="C22" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="25"/>
-      <c r="C27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="25"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="25"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="9" t="s">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="22"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="14"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="14"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="16"/>
-      <c r="C33" s="17" t="s">
+      <c r="B33" s="23"/>
+      <c r="C33" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="21" t="b">
+      <c r="F33" s="12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="23"/>
+      <c r="C35" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="16"/>
-      <c r="C35" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="C7:C15"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="C27:C29"/>
     <mergeCell ref="D27:D29"/>
     <mergeCell ref="C30:C32"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B7:B16"/>
-    <mergeCell ref="C7:C15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/API 명세.xlsx
+++ b/Documents/API 명세.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
   <si>
     <t>메뉴 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,14 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>orderList 요청(GET /orderList)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderList 객체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>waiting_order_list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,10 +207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주문 내역 조회 (GET /order_history_list)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주문 내역 객체</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,6 +228,42 @@
   </si>
   <si>
     <t>결제하기 (POST /payment)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 내역 조회 (GET /history)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderList 요청(GET /orderlist)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order_list 객체</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -272,7 +296,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -322,7 +346,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -340,7 +364,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -358,55 +382,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -540,14 +519,169 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -558,16 +692,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -577,79 +708,127 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -966,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:F35"/>
+  <dimension ref="B5:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D12"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -985,423 +1164,452 @@
   <sheetData>
     <row r="5" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="21" t="s">
+    <row r="7" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="F7" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="37"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="37"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="37"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="37"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="37"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="37"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="37"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="37"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="37"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="38"/>
+      <c r="C17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="22"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="1" t="s">
+      <c r="D18" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="38"/>
+      <c r="C19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="37"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="38"/>
+      <c r="C22" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="22"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="22"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="22"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="22"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="22"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="9" t="s">
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="37"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="40"/>
+      <c r="C25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="21"/>
+      <c r="C37" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="21"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="22"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="22"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="22"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="23"/>
-      <c r="C16" s="10" t="s">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="21"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="21"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="22"/>
+      <c r="C43" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D43" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E43" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="12" t="b">
+      <c r="F43" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="4" t="s">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="28"/>
-      <c r="C18" s="10" t="s">
+      <c r="D44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="22"/>
+      <c r="C45" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="20"/>
-      <c r="C20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="23"/>
-      <c r="C22" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="20"/>
-      <c r="C27" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="20"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="20"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="22"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="1" t="s">
+      <c r="D45" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="22"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="1" t="s">
+      <c r="E45" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="23"/>
-      <c r="C33" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="24" t="s">
+      <c r="F45" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="23"/>
-      <c r="C35" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>48</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B7:B16"/>
-    <mergeCell ref="C7:C15"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="C30:C32"/>
+  <mergeCells count="18">
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B7:B17"/>
+    <mergeCell ref="C7:C16"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/API 명세.xlsx
+++ b/Documents/API 명세.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mashiro\Documents\vscode_workspace\SEproject\Mr.Great-SE-Project\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_repos\Mr.Great-SE-Project\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492C615D-62B6-4274-9287-EDE3C587F201}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9015" yWindow="1440" windowWidth="28800" windowHeight="15435"/>
+    <workbookView xWindow="0" yWindow="5565" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
   <si>
     <t>메뉴 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,10 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>장바구니 얻기(GET /basketList)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>to server</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -251,10 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pay_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주문 내역 조회 (GET /history)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -264,13 +248,29 @@
   </si>
   <si>
     <t>Order_list 객체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_info 객체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment: string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price: int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 얻기(POST /basketList)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -296,7 +296,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -524,15 +524,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -585,7 +576,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -595,95 +625,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -692,7 +633,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -705,130 +646,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1144,11 +1094,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:F45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B5:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1164,452 +1114,462 @@
   <sheetData>
     <row r="5" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="34"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="34"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="34"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="34"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="34"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="34"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="44"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="34"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="34"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="34"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="35"/>
+      <c r="C17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="35"/>
+      <c r="C19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="34"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="35"/>
+      <c r="C22" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C23" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="34"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="34"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="35"/>
+      <c r="C26" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="37"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="37"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="42" t="s">
+      <c r="D26" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="37"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="37"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="37"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="37"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="37"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="7" t="s">
+    </row>
+    <row r="35" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="34"/>
+      <c r="C38" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="34"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="35"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="37"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="37"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="38"/>
-      <c r="C17" s="8" t="s">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="34"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="34"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="35"/>
+      <c r="C44" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="10" t="b">
+      <c r="F44" s="9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="37" t="s">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D45" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="35"/>
+      <c r="C46" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="38"/>
-      <c r="C19" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="37"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="38"/>
-      <c r="C22" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="37"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="40"/>
-      <c r="C25" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="21"/>
-      <c r="C37" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="21"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="22"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="21"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="21"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="1" t="s">
+      <c r="D46" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="22"/>
-      <c r="C43" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F43" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="22"/>
-      <c r="C45" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="8" t="s">
+      <c r="E46" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="F46" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F45" s="10" t="s">
-        <v>45</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="B36:B39"/>
+  <mergeCells count="20">
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="D10:D13"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B7:B17"/>
     <mergeCell ref="C7:C16"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="B37:B40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
